--- a/BOM/T-962.xlsx
+++ b/BOM/T-962.xlsx
@@ -433,12 +433,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
